--- a/src/test/resources/testdata/ExTest.xlsx
+++ b/src/test/resources/testdata/ExTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javel\Desktop\Testing\test-automation-duastana\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF80D9F-3B46-4AD9-AD9C-166DEA2AC030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAC3A59-88F1-4813-A4F4-033E327A60B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{DCB5C4EC-4C7F-49F5-A2CD-52EC70536E8A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="34">
   <si>
     <t>Y</t>
   </si>
@@ -122,13 +122,22 @@
     <t>Test No</t>
   </si>
   <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>FAILURE</t>
   </si>
   <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>STATUS</t>
+    <t>SKIPPED</t>
   </si>
 </sst>
 </file>
@@ -518,7 +527,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,7 +558,7 @@
         <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -566,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -583,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -597,10 +606,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -614,10 +623,10 @@
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -631,10 +640,10 @@
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -651,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -668,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -685,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -702,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -719,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -736,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/ExTest.xlsx
+++ b/src/test/resources/testdata/ExTest.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="34">
   <si>
     <t>Y</t>
   </si>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
